--- a/utilidades/DC_Core.xlsx
+++ b/utilidades/DC_Core.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="DC" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -46,170 +46,123 @@
     <t xml:space="preserve">Título</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">title</t>
-    </r>
+    <t xml:space="preserve">title </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A name given to the resource. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;dc:title&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An entity primarily responsible for making the resource. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examples of a Creator include a person, an organization, or a service. Typically, the name of a Creator should be used to indicate the entity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;dc:creator&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assunto e Palavras Chave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subject </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The topic of the resource. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typically, the subject will be represented using keywords, key phrases, or classification codes. Recommended best practice is to use a controlled vocabulary. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;dc:subject&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Descrição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An account of the resource. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description may include but is not limited to: an abstract, a table of contents, a graphical representation, or a free-text account of the resource. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;dc:description&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publisher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An entity responsible for making the resource available. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examples of a Publisher include a person, an organization, or a service. Typically, the name of a Publisher should be used to indicate the entity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;dc:publisher&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contributor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outro Contribuinte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contributor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An entity responsible for making contributions to the resource. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The guidelines for using names of persons or organizations as creators also apply to contributors. Typically, the name of a Contributor should be used to indicate the entity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;dc:contributor&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A point or period of time associated with an event in the lifecycle of the resource. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">A name given to the resource. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;dc:title&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">creator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An entity primarily responsible for making the resource. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Examples of a Creator include a person, an organization, or a service. Typically, the name of a Creator should be used to indicate the entity. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;dc:creator&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assunto e Palavras Chave</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">subject</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">The topic of the resource. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typically, the subject will be represented using keywords, key phrases, or classification codes. Recommended best practice is to use a controlled vocabulary. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;dc:subject&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Descrição</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An account of the resource. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description may include but is not limited to: an abstract, a table of contents, a graphical representation, or a free-text account of the resource. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;dc:description&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Editor</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">publisher</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">An entity responsible for making the resource available. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Examples of a Publisher include a person, an organization, or a service. Typically, the name of a Publisher should be used to indicate the entity. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;dc:publisher&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contributor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outro Contribuinte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contributor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An entity responsible for making contributions to the resource. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The guidelines for using names of persons or organizations as creators also apply to contributors. Typically, the name of a Contributor should be used to indicate the entity. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;dc:contributor&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A point or period of time associated with an event in the lifecycle of the resource. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Date may be used to express temporal information at any level of granularity. Recommended practice is to express the date, date/time, or period of time according to ISO 8601-1 [</t>
     </r>
@@ -219,6 +172,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ISO 8601-1</t>
     </r>
@@ -227,6 +181,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">] or a published profile of the ISO standard, such as the W3C Note on Date and Time Formats [</t>
     </r>
@@ -236,6 +191,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">W3CDTF</t>
     </r>
@@ -244,6 +200,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">] or the Extended Date/Time Format Specification [</t>
     </r>
@@ -253,6 +210,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">EDTF</t>
     </r>
@@ -261,6 +219,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">]. If the full date is unknown, month and year (YYYY-MM) or just year (YYYY) may be used. Date ranges may be specified using ISO 8601 period of time specification in which start and end dates are separated by a '/' (slash) character. Either the start or end date may be missing. </t>
     </r>
@@ -275,53 +234,13 @@
     <t xml:space="preserve"> Tipo do Recurso</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">type </t>
   </si>
   <si>
     <t xml:space="preserve">The nature or genre of the resource. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Recommended practice is to use a controlled vocabulary such as the DCMI Type Vocabulary [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">DCMI-TYPE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">]. To describe the file format, physical medium, or dimensions of the resource, use the Format element. </t>
-    </r>
+    <t xml:space="preserve">Recommended practice is to use a controlled vocabulary such as the DCMI Type Vocabulary [DCMI-TYPE]. To describe the file format, physical medium, or dimensions of the resource, use the Format element. </t>
   </si>
   <si>
     <t xml:space="preserve">&lt;dc:type&gt; </t>
@@ -333,53 +252,13 @@
     <t xml:space="preserve"> Formato</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">format</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">format </t>
   </si>
   <si>
     <t xml:space="preserve">The file format, physical medium, or dimensions of the resource. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Recommended practice is to use a controlled vocabulary where available. For example, for file formats one could use the list of Internet Media Types [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">MIME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">]. </t>
-    </r>
+    <t xml:space="preserve">Recommended practice is to use a controlled vocabulary where available. For example, for file formats one could use the list of Internet Media Types [MIME]. </t>
   </si>
   <si>
     <t xml:space="preserve">&lt;dc:format&gt; </t>
@@ -409,23 +288,7 @@
     <t xml:space="preserve"> Fonte</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">source</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">source </t>
   </si>
   <si>
     <t xml:space="preserve">A related resource from which the described resource is derived. </t>
@@ -443,53 +306,13 @@
     <t xml:space="preserve"> Língua</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">language</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">language </t>
   </si>
   <si>
     <t xml:space="preserve">A language of the resource. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Recommended practice is to use either a non-literal value representing a language from a controlled vocabulary such as ISO 639-2 or ISO 639-3, or a literal value consisting of an IETF Best Current Practice 47 [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">IETF-BCP47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">] language tag. </t>
-    </r>
+    <t xml:space="preserve">Recommended practice is to use either a non-literal value representing a language from a controlled vocabulary such as ISO 639-2 or ISO 639-3, or a literal value consisting of an IETF Best Current Practice 47 [IETF-BCP47] language tag. </t>
   </si>
   <si>
     <t xml:space="preserve">&lt;dc:language&gt; </t>
@@ -501,23 +324,7 @@
     <t xml:space="preserve"> Relação</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">relation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">relation </t>
   </si>
   <si>
     <t xml:space="preserve">A related resource. </t>
@@ -535,53 +342,13 @@
     <t xml:space="preserve"> Cobertura</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">coverage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">coverage </t>
   </si>
   <si>
     <t xml:space="preserve">The spatial or temporal topic of the resource, spatial applicability of the resource, or jurisdiction under which the resource is relevant. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Spatial topic and spatial applicability may be a named place or a location specified by its geographic coordinates. Temporal topic may be a named period, date, or date range. A jurisdiction may be a named administrative entity or a geographic place to which the resource applies. Recommended practice is to use a controlled vocabulary such as the Getty Thesaurus of Geographic Names [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">TGN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">]. Where appropriate, named places or time periods may be used in preference to numeric identifiers such as sets of coordinates or date ranges. </t>
-    </r>
+    <t xml:space="preserve">Spatial topic and spatial applicability may be a named place or a location specified by its geographic coordinates. Temporal topic may be a named period, date, or date range. A jurisdiction may be a named administrative entity or a geographic place to which the resource applies. Recommended practice is to use a controlled vocabulary such as the Getty Thesaurus of Geographic Names [TGN]. Where appropriate, named places or time periods may be used in preference to numeric identifiers such as sets of coordinates or date ranges. </t>
   </si>
   <si>
     <t xml:space="preserve">&lt;dc:coverage&gt; </t>
@@ -612,11 +379,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -638,22 +406,33 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -698,33 +477,41 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -853,357 +640,357 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="66.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="66.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+    <row r="15" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" location="http://purl.org/dc/elements/1.1/title" display="title"/>
+    <hyperlink ref="C2" r:id="rId1" location="http://purl.org/dc/elements/1.1/title" display="title "/>
     <hyperlink ref="C3" r:id="rId2" location="http://purl.org/dc/elements/1.1/creator" display="creator"/>
-    <hyperlink ref="C4" r:id="rId3" location="http://purl.org/dc/elements/1.1/subject" display="subject"/>
+    <hyperlink ref="C4" r:id="rId3" location="http://purl.org/dc/elements/1.1/subject" display="subject "/>
     <hyperlink ref="C5" r:id="rId4" location="http://purl.org/dc/elements/1.1/description" display="description"/>
-    <hyperlink ref="C6" r:id="rId5" location="http://purl.org/dc/elements/1.1/publisher" display="publisher"/>
+    <hyperlink ref="C6" r:id="rId5" location="http://purl.org/dc/elements/1.1/publisher" display="publisher "/>
     <hyperlink ref="C7" r:id="rId6" location="http://purl.org/dc/elements/1.1/contributor" display="contributor"/>
     <hyperlink ref="C8" r:id="rId7" location="http://purl.org/dc/elements/1.1/date" display="date"/>
-    <hyperlink ref="C9" r:id="rId8" location="http://purl.org/dc/elements/1.1/type" display="type"/>
-    <hyperlink ref="E9" r:id="rId9" display="DCMI-TYPE"/>
-    <hyperlink ref="C10" r:id="rId10" location="http://purl.org/dc/elements/1.1/format" display="format"/>
-    <hyperlink ref="E10" r:id="rId11" display="MIME"/>
+    <hyperlink ref="C9" r:id="rId8" location="http://purl.org/dc/elements/1.1/type" display="type "/>
+    <hyperlink ref="E9" r:id="rId9" display="Recommended practice is to use a controlled vocabulary such as the DCMI Type Vocabulary [DCMI-TYPE]. To describe the file format, physical medium, or dimensions of the resource, use the Format element. "/>
+    <hyperlink ref="C10" r:id="rId10" location="http://purl.org/dc/elements/1.1/format" display="format "/>
+    <hyperlink ref="E10" r:id="rId11" display="Recommended practice is to use a controlled vocabulary where available. For example, for file formats one could use the list of Internet Media Types [MIME]. "/>
     <hyperlink ref="C11" r:id="rId12" location="http://purl.org/dc/elements/1.1/identifier" display="identifier"/>
-    <hyperlink ref="C12" r:id="rId13" location="http://purl.org/dc/elements/1.1/source" display="source"/>
-    <hyperlink ref="C13" r:id="rId14" location="http://purl.org/dc/elements/1.1/language" display="language"/>
-    <hyperlink ref="E13" r:id="rId15" display="IETF-BCP47"/>
-    <hyperlink ref="C14" r:id="rId16" location="http://purl.org/dc/elements/1.1/relation" display="relation"/>
-    <hyperlink ref="C15" r:id="rId17" location="http://purl.org/dc/elements/1.1/coverage" display="coverage"/>
-    <hyperlink ref="E15" r:id="rId18" display="TGN"/>
+    <hyperlink ref="C12" r:id="rId13" location="http://purl.org/dc/elements/1.1/source" display="source "/>
+    <hyperlink ref="C13" r:id="rId14" location="http://purl.org/dc/elements/1.1/language" display="language "/>
+    <hyperlink ref="E13" r:id="rId15" display="Recommended practice is to use either a non-literal value representing a language from a controlled vocabulary such as ISO 639-2 or ISO 639-3, or a literal value consisting of an IETF Best Current Practice 47 [IETF-BCP47] language tag. "/>
+    <hyperlink ref="C14" r:id="rId16" location="http://purl.org/dc/elements/1.1/relation" display="relation "/>
+    <hyperlink ref="C15" r:id="rId17" location="http://purl.org/dc/elements/1.1/coverage" display="coverage "/>
+    <hyperlink ref="E15" r:id="rId18" display="Spatial topic and spatial applicability may be a named place or a location specified by its geographic coordinates. Temporal topic may be a named period, date, or date range. A jurisdiction may be a named administrative entity or a geographic place to which the resource applies. Recommended practice is to use a controlled vocabulary such as the Getty Thesaurus of Geographic Names [TGN]. Where appropriate, named places or time periods may be used in preference to numeric identifiers such as sets of coordinates or date ranges. "/>
     <hyperlink ref="C16" r:id="rId19" location="http://purl.org/dc/elements/1.1/rights" display="rights"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
